--- a/Code/Results/Cases/Case_4_242/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_242/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.627470933537666</v>
+        <v>1.789548875694265</v>
       </c>
       <c r="C2">
-        <v>2.283152562891587</v>
+        <v>0.8238640998532674</v>
       </c>
       <c r="D2">
-        <v>0.2097274953480337</v>
+        <v>0.07791734586413668</v>
       </c>
       <c r="E2">
-        <v>0.07833238376489859</v>
+        <v>0.03534362183305717</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007592894630852865</v>
+        <v>0.002485221746233687</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.865934834408989</v>
+        <v>1.439996499980722</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.517932422761703</v>
+        <v>0.5896764645947883</v>
       </c>
       <c r="N2">
-        <v>1.548085056725341</v>
+        <v>1.918062992952471</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.963734653437598</v>
+        <v>1.633925475310207</v>
       </c>
       <c r="C3">
-        <v>1.952385785443084</v>
+        <v>0.7451947238899379</v>
       </c>
       <c r="D3">
-        <v>0.1795867301105005</v>
+        <v>0.07072028632580896</v>
       </c>
       <c r="E3">
-        <v>0.06737342713118011</v>
+        <v>0.03285578853059334</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007722623607622415</v>
+        <v>0.002492621815276427</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.664217482674147</v>
+        <v>1.396391884001702</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.299952030123293</v>
+        <v>0.5386314776815766</v>
       </c>
       <c r="N3">
-        <v>1.504732240569254</v>
+        <v>1.907711143842448</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.567540168539608</v>
+        <v>1.539553035757592</v>
       </c>
       <c r="C4">
-        <v>1.755575969333222</v>
+        <v>0.6974055381928679</v>
       </c>
       <c r="D4">
-        <v>0.1616259919237564</v>
+        <v>0.06635039216773464</v>
       </c>
       <c r="E4">
-        <v>0.0608800610582847</v>
+        <v>0.03135329361769124</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.000780351649346836</v>
+        <v>0.002497394454804803</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.545876870692112</v>
+        <v>1.370461337867113</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.170102170563226</v>
+        <v>0.5076819295777</v>
       </c>
       <c r="N4">
-        <v>1.481388626925749</v>
+        <v>1.901929373290812</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.408481627967262</v>
+        <v>1.501386007110852</v>
       </c>
       <c r="C5">
-        <v>1.67669874548784</v>
+        <v>0.6780564532149356</v>
       </c>
       <c r="D5">
-        <v>0.1544222102542108</v>
+        <v>0.06458164187381499</v>
       </c>
       <c r="E5">
-        <v>0.05828407504757038</v>
+        <v>0.03074715927328953</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007836844231242409</v>
+        <v>0.002499397160470756</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.498850585550514</v>
+        <v>1.360103474992258</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.118030765150451</v>
+        <v>0.4951659900986272</v>
       </c>
       <c r="N5">
-        <v>1.472606482107309</v>
+        <v>1.899715933562675</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.382202369793845</v>
+        <v>1.49506576067148</v>
       </c>
       <c r="C6">
-        <v>1.663674389363223</v>
+        <v>0.6748510137019252</v>
       </c>
       <c r="D6">
-        <v>0.1532324080224612</v>
+        <v>0.06428865829870745</v>
       </c>
       <c r="E6">
-        <v>0.0578557962095978</v>
+        <v>0.03064687781018094</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.000784240160797093</v>
+        <v>0.002499733206993768</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.491109239190834</v>
+        <v>1.358396101631456</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.109430996906035</v>
+        <v>0.4930934722772449</v>
       </c>
       <c r="N6">
-        <v>1.471189842904423</v>
+        <v>1.899356960627202</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.565385919647667</v>
+        <v>1.539037134051455</v>
       </c>
       <c r="C7">
-        <v>1.75450715459715</v>
+        <v>0.697144087029983</v>
       </c>
       <c r="D7">
-        <v>0.1615283990025489</v>
+        <v>0.06632648996692581</v>
       </c>
       <c r="E7">
-        <v>0.06084485895418368</v>
+        <v>0.03134509439978217</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007803964428410771</v>
+        <v>0.002497421229620045</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.545238036559795</v>
+        <v>1.370320805485377</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.169396698902219</v>
+        <v>0.5075127486447428</v>
       </c>
       <c r="N7">
-        <v>1.481267344077153</v>
+        <v>1.90189894664266</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.395965164949871</v>
+        <v>1.735640850788741</v>
       </c>
       <c r="C8">
-        <v>2.167635431866756</v>
+        <v>0.7966298104446423</v>
       </c>
       <c r="D8">
-        <v>0.1992075706149308</v>
+        <v>0.07542539631238299</v>
       </c>
       <c r="E8">
-        <v>0.07449899323361109</v>
+        <v>0.03448052521164158</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007637401373547404</v>
+        <v>0.002487725912913428</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.79511679255134</v>
+        <v>1.424784918068113</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.44184119285319</v>
+        <v>0.5719932694236007</v>
       </c>
       <c r="N8">
-        <v>1.532397276818145</v>
+        <v>1.914373422837343</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.139214185559581</v>
+        <v>2.13086658403904</v>
       </c>
       <c r="C9">
-        <v>3.041318385501199</v>
+        <v>0.9959878532756079</v>
       </c>
       <c r="D9">
-        <v>0.2785957444748419</v>
+        <v>0.09367445532897989</v>
       </c>
       <c r="E9">
-        <v>0.1036298366549602</v>
+        <v>0.04083513024632168</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007317846666085737</v>
+        <v>0.002470519168214182</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.338937203658617</v>
+        <v>1.538415599323358</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2.016335883746152</v>
+        <v>0.7016678364526143</v>
       </c>
       <c r="N9">
-        <v>1.663617519533517</v>
+        <v>1.943473724718501</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.53164024433994</v>
+        <v>2.427618060202121</v>
       </c>
       <c r="C10">
-        <v>3.74545503037541</v>
+        <v>1.145334753225825</v>
       </c>
       <c r="D10">
-        <v>0.3422706897452912</v>
+        <v>0.1073538354438028</v>
       </c>
       <c r="E10">
-        <v>0.127301094223558</v>
+        <v>0.04564018695010574</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007082690902426858</v>
+        <v>0.002458962710411188</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.788464667431072</v>
+        <v>1.626266190650213</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2.47760542860135</v>
+        <v>0.7990802236808179</v>
       </c>
       <c r="N10">
-        <v>1.787392177589936</v>
+        <v>1.967797344298958</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.201683340292504</v>
+        <v>2.56411000853808</v>
       </c>
       <c r="C11">
-        <v>4.086274114455364</v>
+        <v>1.213963775375476</v>
       </c>
       <c r="D11">
-        <v>0.3729872751410284</v>
+        <v>0.1136413886246572</v>
       </c>
       <c r="E11">
-        <v>0.1388085801153629</v>
+        <v>0.04785813180350118</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0006974251194760544</v>
+        <v>0.002453937712327882</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.008888015310504</v>
+        <v>1.667225500074181</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2.700290295437668</v>
+        <v>0.8438991473080506</v>
       </c>
       <c r="N11">
-        <v>1.852156004237713</v>
+        <v>1.979527737180575</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.462031783727241</v>
+        <v>2.616019714392564</v>
       </c>
       <c r="C12">
-        <v>4.219051098216312</v>
+        <v>1.240055969449998</v>
       </c>
       <c r="D12">
-        <v>0.384934994874115</v>
+        <v>0.1160320556628136</v>
       </c>
       <c r="E12">
-        <v>0.1432995328314099</v>
+        <v>0.04870281635646023</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0006932826077700246</v>
+        <v>0.002452067991515543</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.095204069763994</v>
+        <v>1.682882521559193</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2.786939305173632</v>
+        <v>0.8609466389876559</v>
       </c>
       <c r="N12">
-        <v>1.878173438159564</v>
+        <v>1.984067513610199</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.40564147472179</v>
+        <v>2.604829979926933</v>
       </c>
       <c r="C13">
-        <v>4.190275513714482</v>
+        <v>1.234431854477691</v>
       </c>
       <c r="D13">
-        <v>0.382346582513776</v>
+        <v>0.1155167445760554</v>
       </c>
       <c r="E13">
-        <v>0.1423258908425105</v>
+        <v>0.04852068215396699</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0006941766604946498</v>
+        <v>0.002452469199188738</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.076477363626523</v>
+        <v>1.679503925139102</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2.768165672652088</v>
+        <v>0.8572717510863583</v>
       </c>
       <c r="N13">
-        <v>1.872498546537855</v>
+        <v>1.983085412011548</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.222960753940811</v>
+        <v>2.568376133724655</v>
       </c>
       <c r="C14">
-        <v>4.097118163690311</v>
+        <v>1.216108287392217</v>
       </c>
       <c r="D14">
-        <v>0.3739634608297138</v>
+        <v>0.1138378733806746</v>
       </c>
       <c r="E14">
-        <v>0.1391752020580022</v>
+        <v>0.04792752732048911</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0006970851368552274</v>
+        <v>0.002453783226443175</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.01592854737774</v>
+        <v>1.668510654148676</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2.707369243772106</v>
+        <v>0.8453001242909011</v>
       </c>
       <c r="N14">
-        <v>1.854264717247304</v>
+        <v>1.979899256828247</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.111971324902299</v>
+        <v>2.546076395938371</v>
       </c>
       <c r="C15">
-        <v>4.040566730630928</v>
+        <v>1.204898239104295</v>
       </c>
       <c r="D15">
-        <v>0.3688718968885212</v>
+        <v>0.1128107924303663</v>
       </c>
       <c r="E15">
-        <v>0.1372635951041481</v>
+        <v>0.04756483300563374</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0006988614445700153</v>
+        <v>0.002454592414322014</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.979230252999756</v>
+        <v>1.661796156138621</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.670448381857085</v>
+        <v>0.8379770799973585</v>
       </c>
       <c r="N15">
-        <v>1.843299788399634</v>
+        <v>1.977960433430695</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.488696323950194</v>
+        <v>2.41872879429701</v>
       </c>
       <c r="C16">
-        <v>3.723655597925699</v>
+        <v>1.140863967889516</v>
       </c>
       <c r="D16">
-        <v>0.3403036553226286</v>
+        <v>0.1069442655254704</v>
       </c>
       <c r="E16">
-        <v>0.1265660882720283</v>
+        <v>0.04549590035926698</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007089736154634697</v>
+        <v>0.002459295756043905</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.774424476308482</v>
+        <v>1.623609731264054</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2.463349015751675</v>
+        <v>0.7961616157713536</v>
       </c>
       <c r="N16">
-        <v>1.783352003839639</v>
+        <v>1.967044299699495</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.116578589139749</v>
+        <v>2.340994330200601</v>
       </c>
       <c r="C17">
-        <v>3.534980895609237</v>
+        <v>1.101761075034801</v>
       </c>
       <c r="D17">
-        <v>0.3232673248504199</v>
+        <v>0.1033622019233036</v>
       </c>
       <c r="E17">
-        <v>0.1202100788659273</v>
+        <v>0.0442350263911564</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007151299548571727</v>
+        <v>0.002462240379194833</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.653217283799137</v>
+        <v>1.600441032541596</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>2.339894441187354</v>
+        <v>0.7706406646019417</v>
       </c>
       <c r="N17">
-        <v>1.748918446559003</v>
+        <v>1.960519483845871</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.905895806937338</v>
+        <v>2.296424067679709</v>
       </c>
       <c r="C18">
-        <v>3.428334583562503</v>
+        <v>1.0793348245885</v>
       </c>
       <c r="D18">
-        <v>0.3136286118316747</v>
+        <v>0.1013079624287769</v>
       </c>
       <c r="E18">
-        <v>0.1166219085808251</v>
+        <v>0.04351281541694973</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007186582033376136</v>
+        <v>0.002463955908461081</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.584961530135843</v>
+        <v>1.587208512915055</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>2.270061935485842</v>
+        <v>0.7560090982760812</v>
       </c>
       <c r="N18">
-        <v>1.729889325616341</v>
+        <v>1.956829094073385</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.835101548750174</v>
+        <v>2.281357249133976</v>
       </c>
       <c r="C19">
-        <v>3.392527521491559</v>
+        <v>1.071752655321291</v>
       </c>
       <c r="D19">
-        <v>0.3103909003914538</v>
+        <v>0.1006134625595507</v>
       </c>
       <c r="E19">
-        <v>0.1154179144363994</v>
+        <v>0.04326879877892509</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007198510244907782</v>
+        <v>0.00246454051894457</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.562087176662132</v>
+        <v>1.582744164505556</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2.246607073514895</v>
+        <v>0.7510631585158052</v>
       </c>
       <c r="N19">
-        <v>1.723572345741331</v>
+        <v>1.95559026639549</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.155835753805718</v>
+        <v>2.349254695360571</v>
       </c>
       <c r="C20">
-        <v>3.554866691538791</v>
+        <v>1.105916915627688</v>
       </c>
       <c r="D20">
-        <v>0.3250638819703653</v>
+        <v>0.1037428877594095</v>
       </c>
       <c r="E20">
-        <v>0.1208795119993802</v>
+        <v>0.04436893571603306</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007144760154160767</v>
+        <v>0.002461924658377537</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.665965358150103</v>
+        <v>1.602897678118836</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2.352911680630925</v>
+        <v>0.7733524863180321</v>
       </c>
       <c r="N20">
-        <v>1.752501841640054</v>
+        <v>1.961207577255067</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.276426407897588</v>
+        <v>2.579077392773115</v>
       </c>
       <c r="C21">
-        <v>4.124372760020549</v>
+        <v>1.221487506956521</v>
       </c>
       <c r="D21">
-        <v>0.376416616039549</v>
+        <v>0.1143307318792495</v>
       </c>
       <c r="E21">
-        <v>0.1400967676215323</v>
+        <v>0.04810161962270953</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0006962319666968088</v>
+        <v>0.002453396367336699</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.033630808600364</v>
+        <v>1.67173563723</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2.725159183091137</v>
+        <v>0.8488144082107709</v>
       </c>
       <c r="N21">
-        <v>1.859577361240639</v>
+        <v>1.980832438997709</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.048272522110665</v>
+        <v>2.730584326456551</v>
       </c>
       <c r="C22">
-        <v>4.518754447215599</v>
+        <v>1.297627231121339</v>
       </c>
       <c r="D22">
-        <v>0.4118634457231707</v>
+        <v>0.1213072720254047</v>
       </c>
       <c r="E22">
-        <v>0.1534514855904838</v>
+        <v>0.05056919165933493</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0006840877514452494</v>
+        <v>0.002448015672968548</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.290884327084797</v>
+        <v>1.717581491422976</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.982302984955311</v>
+        <v>0.898574797783823</v>
       </c>
       <c r="N22">
-        <v>1.938443546451879</v>
+        <v>1.994229046518853</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.632168222807593</v>
+        <v>2.64960025763105</v>
       </c>
       <c r="C23">
-        <v>4.305926564300421</v>
+        <v>1.256932878753275</v>
       </c>
       <c r="D23">
-        <v>0.3927465094969307</v>
+        <v>0.1175784325831017</v>
       </c>
       <c r="E23">
-        <v>0.1462401997152476</v>
+        <v>0.04924957484070802</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0006905955919428125</v>
+        <v>0.002450869866744172</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.151807671737316</v>
+        <v>1.693033188101282</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.843601183998729</v>
+        <v>0.8719753724689099</v>
       </c>
       <c r="N23">
-        <v>1.895426747886461</v>
+        <v>1.987026128918842</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.138077555542452</v>
+        <v>2.345519810094856</v>
       </c>
       <c r="C24">
-        <v>3.545870692991571</v>
+        <v>1.104037890614222</v>
       </c>
       <c r="D24">
-        <v>0.3242511781492681</v>
+        <v>0.1035707637233259</v>
       </c>
       <c r="E24">
-        <v>0.1205766576953344</v>
+        <v>0.04430838696923445</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007147716948832095</v>
+        <v>0.002462067325345563</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.660197546177116</v>
+        <v>1.601786756451659</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2.347023060104448</v>
+        <v>0.7721263449495979</v>
       </c>
       <c r="N24">
-        <v>1.750879418975643</v>
+        <v>1.960896300957302</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.651530100775915</v>
+        <v>2.022862184993755</v>
       </c>
       <c r="C25">
-        <v>2.796015341134876</v>
+        <v>0.9415711005020171</v>
       </c>
       <c r="D25">
-        <v>0.2563475992592572</v>
+        <v>0.0886916495533967</v>
       </c>
       <c r="E25">
-        <v>0.09542085079867846</v>
+        <v>0.03909288816823775</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007403967531604632</v>
+        <v>0.002474982331676019</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.184486507138672</v>
+        <v>1.506923760297468</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.855271712922701</v>
+        <v>0.6662242084967716</v>
       </c>
       <c r="N25">
-        <v>1.624028368553951</v>
+        <v>1.93509290759134</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_242/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_242/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.789548875694265</v>
+        <v>4.627470933537495</v>
       </c>
       <c r="C2">
-        <v>0.8238640998532674</v>
+        <v>2.283152562891814</v>
       </c>
       <c r="D2">
-        <v>0.07791734586413668</v>
+        <v>0.2097274953481474</v>
       </c>
       <c r="E2">
-        <v>0.03534362183305717</v>
+        <v>0.07833238376493057</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002485221746233687</v>
+        <v>0.0007592894631543173</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.439996499980722</v>
+        <v>1.865934834408989</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5896764645947883</v>
+        <v>1.517932422761703</v>
       </c>
       <c r="N2">
-        <v>1.918062992952471</v>
+        <v>1.54808505672527</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.633925475310207</v>
+        <v>3.963734653437484</v>
       </c>
       <c r="C3">
-        <v>0.7451947238899379</v>
+        <v>1.952385785443369</v>
       </c>
       <c r="D3">
-        <v>0.07072028632580896</v>
+        <v>0.1795867301105005</v>
       </c>
       <c r="E3">
-        <v>0.03285578853059334</v>
+        <v>0.06737342713121564</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002492621815276427</v>
+        <v>0.000772262360876753</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.396391884001702</v>
+        <v>1.664217482674147</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5386314776815766</v>
+        <v>1.299952030123293</v>
       </c>
       <c r="N3">
-        <v>1.907711143842448</v>
+        <v>1.504732240569211</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.539553035757592</v>
+        <v>3.567540168539381</v>
       </c>
       <c r="C4">
-        <v>0.6974055381928679</v>
+        <v>1.755575969333336</v>
       </c>
       <c r="D4">
-        <v>0.06635039216773464</v>
+        <v>0.1616259919234864</v>
       </c>
       <c r="E4">
-        <v>0.03135329361769124</v>
+        <v>0.06088006105824917</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002497394454804803</v>
+        <v>0.0007803516493547491</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.370461337867113</v>
+        <v>1.54587687069214</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5076819295777</v>
+        <v>1.17010217056324</v>
       </c>
       <c r="N4">
-        <v>1.901929373290812</v>
+        <v>1.481388626925749</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.501386007110852</v>
+        <v>3.408481627967205</v>
       </c>
       <c r="C5">
-        <v>0.6780564532149356</v>
+        <v>1.676698745487613</v>
       </c>
       <c r="D5">
-        <v>0.06458164187381499</v>
+        <v>0.1544222102544808</v>
       </c>
       <c r="E5">
-        <v>0.03074715927328953</v>
+        <v>0.05828407504757038</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002499397160470756</v>
+        <v>0.0007836844231887449</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.360103474992258</v>
+        <v>1.498850585550514</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4951659900986272</v>
+        <v>1.118030765150436</v>
       </c>
       <c r="N5">
-        <v>1.899715933562675</v>
+        <v>1.472606482107352</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.49506576067148</v>
+        <v>3.382202369793731</v>
       </c>
       <c r="C6">
-        <v>0.6748510137019252</v>
+        <v>1.663674389363223</v>
       </c>
       <c r="D6">
-        <v>0.06428865829870745</v>
+        <v>0.1532324080223049</v>
       </c>
       <c r="E6">
-        <v>0.03064687781018094</v>
+        <v>0.05785579620966175</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002499733206993768</v>
+        <v>0.000784240160794332</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.358396101631456</v>
+        <v>1.491109239190862</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4930934722772449</v>
+        <v>1.109430996906056</v>
       </c>
       <c r="N6">
-        <v>1.899356960627202</v>
+        <v>1.471189842904394</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.539037134051455</v>
+        <v>3.565385919647554</v>
       </c>
       <c r="C7">
-        <v>0.697144087029983</v>
+        <v>1.754507154597377</v>
       </c>
       <c r="D7">
-        <v>0.06632648996692581</v>
+        <v>0.1615283990025347</v>
       </c>
       <c r="E7">
-        <v>0.03134509439978217</v>
+        <v>0.06084485895418013</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002497421229620045</v>
+        <v>0.0007803964429066352</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.370320805485377</v>
+        <v>1.545238036559823</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5075127486447428</v>
+        <v>1.169396698902219</v>
       </c>
       <c r="N7">
-        <v>1.90189894664266</v>
+        <v>1.48126734407721</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.735640850788741</v>
+        <v>4.3959651649497</v>
       </c>
       <c r="C8">
-        <v>0.7966298104446423</v>
+        <v>2.167635431866699</v>
       </c>
       <c r="D8">
-        <v>0.07542539631238299</v>
+        <v>0.1992075706149308</v>
       </c>
       <c r="E8">
-        <v>0.03448052521164158</v>
+        <v>0.07449899323362175</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002487725912913428</v>
+        <v>0.0007637401373542854</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.424784918068113</v>
+        <v>1.79511679255134</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5719932694236007</v>
+        <v>1.44184119285319</v>
       </c>
       <c r="N8">
-        <v>1.914373422837343</v>
+        <v>1.532397276818145</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.13086658403904</v>
+        <v>6.139214185559695</v>
       </c>
       <c r="C9">
-        <v>0.9959878532756079</v>
+        <v>3.041318385501427</v>
       </c>
       <c r="D9">
-        <v>0.09367445532897989</v>
+        <v>0.2785957444750267</v>
       </c>
       <c r="E9">
-        <v>0.04083513024632168</v>
+        <v>0.1036298366549673</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002470519168214182</v>
+        <v>0.0007317846666110161</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.538415599323358</v>
+        <v>2.338937203658602</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7016678364526143</v>
+        <v>2.016335883746137</v>
       </c>
       <c r="N9">
-        <v>1.943473724718501</v>
+        <v>1.663617519533517</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.427618060202121</v>
+        <v>7.531640244339883</v>
       </c>
       <c r="C10">
-        <v>1.145334753225825</v>
+        <v>3.745455030375695</v>
       </c>
       <c r="D10">
-        <v>0.1073538354438028</v>
+        <v>0.3422706897454333</v>
       </c>
       <c r="E10">
-        <v>0.04564018695010574</v>
+        <v>0.1273010942235508</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002458962710411188</v>
+        <v>0.0007082690902744667</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.626266190650213</v>
+        <v>2.788464667431072</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.7990802236808179</v>
+        <v>2.477605428601365</v>
       </c>
       <c r="N10">
-        <v>1.967797344298958</v>
+        <v>1.787392177589879</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.56411000853808</v>
+        <v>8.201683340292504</v>
       </c>
       <c r="C11">
-        <v>1.213963775375476</v>
+        <v>4.08627411445508</v>
       </c>
       <c r="D11">
-        <v>0.1136413886246572</v>
+        <v>0.372987275141071</v>
       </c>
       <c r="E11">
-        <v>0.04785813180350118</v>
+        <v>0.1388085801153949</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002453937712327882</v>
+        <v>0.0006974251194781272</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.667225500074181</v>
+        <v>3.008888015310504</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.8438991473080506</v>
+        <v>2.700290295437668</v>
       </c>
       <c r="N11">
-        <v>1.979527737180575</v>
+        <v>1.852156004237742</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.616019714392564</v>
+        <v>8.462031783727298</v>
       </c>
       <c r="C12">
-        <v>1.240055969449998</v>
+        <v>4.219051098215914</v>
       </c>
       <c r="D12">
-        <v>0.1160320556628136</v>
+        <v>0.384934994873916</v>
       </c>
       <c r="E12">
-        <v>0.04870281635646023</v>
+        <v>0.1432995328314313</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002452067991515543</v>
+        <v>0.0006932826079160227</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.682882521559193</v>
+        <v>3.09520406976398</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.8609466389876559</v>
+        <v>2.786939305173632</v>
       </c>
       <c r="N12">
-        <v>1.984067513610199</v>
+        <v>1.878173438159592</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.604829979926933</v>
+        <v>8.405641474721563</v>
       </c>
       <c r="C13">
-        <v>1.234431854477691</v>
+        <v>4.190275513713914</v>
       </c>
       <c r="D13">
-        <v>0.1155167445760554</v>
+        <v>0.3823465825135628</v>
       </c>
       <c r="E13">
-        <v>0.04852068215396699</v>
+        <v>0.1423258908424962</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002452469199188738</v>
+        <v>0.0006941766604963666</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.679503925139102</v>
+        <v>3.076477363626523</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.8572717510863583</v>
+        <v>2.768165672652074</v>
       </c>
       <c r="N13">
-        <v>1.983085412011548</v>
+        <v>1.872498546537827</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.568376133724655</v>
+        <v>8.222960753940981</v>
       </c>
       <c r="C14">
-        <v>1.216108287392217</v>
+        <v>4.097118163690368</v>
       </c>
       <c r="D14">
-        <v>0.1138378733806746</v>
+        <v>0.3739634608297138</v>
       </c>
       <c r="E14">
-        <v>0.04792752732048911</v>
+        <v>0.1391752020579986</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002453783226443175</v>
+        <v>0.0006970851368004472</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.668510654148676</v>
+        <v>3.01592854737774</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.8453001242909011</v>
+        <v>2.707369243772092</v>
       </c>
       <c r="N14">
-        <v>1.979899256828247</v>
+        <v>1.854264717247332</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.546076395938371</v>
+        <v>8.111971324902356</v>
       </c>
       <c r="C15">
-        <v>1.204898239104295</v>
+        <v>4.040566730630985</v>
       </c>
       <c r="D15">
-        <v>0.1128107924303663</v>
+        <v>0.3688718968882938</v>
       </c>
       <c r="E15">
-        <v>0.04756483300563374</v>
+        <v>0.1372635951041197</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002454592414322014</v>
+        <v>0.000698861444569183</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.661796156138621</v>
+        <v>2.979230252999741</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.8379770799973585</v>
+        <v>2.670448381857113</v>
       </c>
       <c r="N15">
-        <v>1.977960433430695</v>
+        <v>1.843299788399605</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.41872879429701</v>
+        <v>7.488696323950251</v>
       </c>
       <c r="C16">
-        <v>1.140863967889516</v>
+        <v>3.723655597925699</v>
       </c>
       <c r="D16">
-        <v>0.1069442655254704</v>
+        <v>0.3403036553224439</v>
       </c>
       <c r="E16">
-        <v>0.04549590035926698</v>
+        <v>0.1265660882720283</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002459295756043905</v>
+        <v>0.0007089736154635478</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.623609731264054</v>
+        <v>2.774424476308468</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.7961616157713536</v>
+        <v>2.463349015751675</v>
       </c>
       <c r="N16">
-        <v>1.967044299699495</v>
+        <v>1.783352003839639</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.340994330200601</v>
+        <v>7.116578589139692</v>
       </c>
       <c r="C17">
-        <v>1.101761075034801</v>
+        <v>3.534980895609067</v>
       </c>
       <c r="D17">
-        <v>0.1033622019233036</v>
+        <v>0.3232673248507894</v>
       </c>
       <c r="E17">
-        <v>0.0442350263911564</v>
+        <v>0.120210078865874</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002462240379194833</v>
+        <v>0.00071512995479848</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.600441032541596</v>
+        <v>2.653217283799151</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.7706406646019417</v>
+        <v>2.339894441187397</v>
       </c>
       <c r="N17">
-        <v>1.960519483845871</v>
+        <v>1.748918446559003</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.296424067679709</v>
+        <v>6.905895806937281</v>
       </c>
       <c r="C18">
-        <v>1.0793348245885</v>
+        <v>3.428334583562389</v>
       </c>
       <c r="D18">
-        <v>0.1013079624287769</v>
+        <v>0.3136286118317031</v>
       </c>
       <c r="E18">
-        <v>0.04351281541694973</v>
+        <v>0.1166219085808038</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002463955908461081</v>
+        <v>0.0007186582033400502</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.587208512915055</v>
+        <v>2.584961530135828</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.7560090982760812</v>
+        <v>2.270061935485828</v>
       </c>
       <c r="N18">
-        <v>1.956829094073385</v>
+        <v>1.729889325616313</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.281357249133976</v>
+        <v>6.835101548750174</v>
       </c>
       <c r="C19">
-        <v>1.071752655321291</v>
+        <v>3.392527521491445</v>
       </c>
       <c r="D19">
-        <v>0.1006134625595507</v>
+        <v>0.3103909003912548</v>
       </c>
       <c r="E19">
-        <v>0.04326879877892509</v>
+        <v>0.1154179144363958</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.00246454051894457</v>
+        <v>0.0007198510244661023</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.582744164505556</v>
+        <v>2.562087176662132</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.7510631585158052</v>
+        <v>2.246607073514895</v>
       </c>
       <c r="N19">
-        <v>1.95559026639549</v>
+        <v>1.723572345741331</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.349254695360571</v>
+        <v>7.155835753805775</v>
       </c>
       <c r="C20">
-        <v>1.105916915627688</v>
+        <v>3.554866691538393</v>
       </c>
       <c r="D20">
-        <v>0.1037428877594095</v>
+        <v>0.3250638819701237</v>
       </c>
       <c r="E20">
-        <v>0.04436893571603306</v>
+        <v>0.1208795119993269</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002461924658377537</v>
+        <v>0.0007144760153252301</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.602897678118836</v>
+        <v>2.665965358150132</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.7733524863180321</v>
+        <v>2.352911680630939</v>
       </c>
       <c r="N20">
-        <v>1.961207577255067</v>
+        <v>1.752501841639997</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.579077392773115</v>
+        <v>8.276426407897645</v>
       </c>
       <c r="C21">
-        <v>1.221487506956521</v>
+        <v>4.124372760020663</v>
       </c>
       <c r="D21">
-        <v>0.1143307318792495</v>
+        <v>0.3764166160395206</v>
       </c>
       <c r="E21">
-        <v>0.04810161962270953</v>
+        <v>0.1400967676215643</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002453396367336699</v>
+        <v>0.0006962319666359686</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.67173563723</v>
+        <v>3.033630808600392</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.8488144082107709</v>
+        <v>2.725159183091165</v>
       </c>
       <c r="N21">
-        <v>1.980832438997709</v>
+        <v>1.859577361240639</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.730584326456551</v>
+        <v>9.048272522110608</v>
       </c>
       <c r="C22">
-        <v>1.297627231121339</v>
+        <v>4.518754447214917</v>
       </c>
       <c r="D22">
-        <v>0.1213072720254047</v>
+        <v>0.4118634457235686</v>
       </c>
       <c r="E22">
-        <v>0.05056919165933493</v>
+        <v>0.1534514855904447</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002448015672968548</v>
+        <v>0.0006840877512533219</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.717581491422976</v>
+        <v>3.290884327084811</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.898574797783823</v>
+        <v>2.982302984955354</v>
       </c>
       <c r="N22">
-        <v>1.994229046518853</v>
+        <v>1.938443546451879</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.64960025763105</v>
+        <v>8.632168222807479</v>
       </c>
       <c r="C23">
-        <v>1.256932878753275</v>
+        <v>4.305926564299739</v>
       </c>
       <c r="D23">
-        <v>0.1175784325831017</v>
+        <v>0.3927465094969023</v>
       </c>
       <c r="E23">
-        <v>0.04924957484070802</v>
+        <v>0.1462401997152689</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002450869866744172</v>
+        <v>0.0006905955919019403</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.693033188101282</v>
+        <v>3.151807671737345</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.8719753724689099</v>
+        <v>2.843601183998786</v>
       </c>
       <c r="N23">
-        <v>1.987026128918842</v>
+        <v>1.895426747886461</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.345519810094856</v>
+        <v>7.138077555542509</v>
       </c>
       <c r="C24">
-        <v>1.104037890614222</v>
+        <v>3.545870692991457</v>
       </c>
       <c r="D24">
-        <v>0.1035707637233259</v>
+        <v>0.3242511781493818</v>
       </c>
       <c r="E24">
-        <v>0.04430838696923445</v>
+        <v>0.1205766576953771</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002462067325345563</v>
+        <v>0.0007147716948818772</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.601786756451659</v>
+        <v>2.66019754617713</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7721263449495979</v>
+        <v>2.347023060104419</v>
       </c>
       <c r="N24">
-        <v>1.960896300957302</v>
+        <v>1.750879418975671</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.022862184993755</v>
+        <v>5.651530100775744</v>
       </c>
       <c r="C25">
-        <v>0.9415711005020171</v>
+        <v>2.796015341135046</v>
       </c>
       <c r="D25">
-        <v>0.0886916495533967</v>
+        <v>0.2563475992594277</v>
       </c>
       <c r="E25">
-        <v>0.03909288816823775</v>
+        <v>0.09542085079870333</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002474982331676019</v>
+        <v>0.0007403967531042602</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.506923760297468</v>
+        <v>2.184486507138686</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6662242084967716</v>
+        <v>1.855271712922729</v>
       </c>
       <c r="N25">
-        <v>1.93509290759134</v>
+        <v>1.624028368553951</v>
       </c>
       <c r="O25">
         <v>0</v>
